--- a/biology/Médecine/Santa_Casa_de_Misericórdia_de_Porto_Alegre/Santa_Casa_de_Misericórdia_de_Porto_Alegre.xlsx
+++ b/biology/Médecine/Santa_Casa_de_Misericórdia_de_Porto_Alegre/Santa_Casa_de_Misericórdia_de_Porto_Alegre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santa_Casa_de_Miseric%C3%B3rdia_de_Porto_Alegre</t>
+          <t>Santa_Casa_de_Misericórdia_de_Porto_Alegre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le complexe hospitalier de la Santa Casa de Misericórdia de Porto Alegre est un ensemble d'hôpitaux de différentes spécialisations médicales localisé dans le Centre de la ville de Porto Alegre. Ce sont les hôpitaux universitaires de la Fondation de la Faculté Fédérale des Sciences Médicales de Porto Alegre. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Santa_Casa_de_Miseric%C3%B3rdia_de_Porto_Alegre</t>
+          <t>Santa_Casa_de_Misericórdia_de_Porto_Alegre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'au début du XIXe siècle, Porto Alegre ne disposait d'aucun hôpital, et les malades étaient soignés chez eux ou dans les deux « auberges-infirmeries » de conditions précaires, l'une administrée par Ângela Reiuna et José Antônio da Silva, l'autre construite autour de 1795 à la Praia do Arsenal par José da Silva Flores et Luiz Antônio da Silva.
 Survint le frère Joaquim Francisco do Livramento, dévoué à la charité et ayant déjà fondé auparavant la Santa Casa de Misericórdia do Desterro dans l'Île de Santa Catarina, qui s'associa aux deux derniers bienfaiteurs précités pour créer une institution du même type à Porto Alegre. Comme de tels établissements avaient besoin d'une autorisation royale pour fonctionner, le 3 avril 1802 le Sénat de la Chambre municipale émit une demande à l'intention du prince régent Dom João pour obtenir ce permis. Un avis royal du 14 mai de la même année fut donc envoyé par le gouverneur de la Capitainerie, Paulo José da Silva Gama, autorisant la mise en place du projet et donnant les pouvoirs à la Chambre municipale pour qu'elle élise le premier Conseil d'administration de l'hôpital de Charité de Porto Alegre, lequel fut élu le 19 octobre 1803.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Santa_Casa_de_Miseric%C3%B3rdia_de_Porto_Alegre</t>
+          <t>Santa_Casa_de_Misericórdia_de_Porto_Alegre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Hôpitaux du complexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hôpital Santa Clara
 Hôpital São Francisco
